--- a/data/old_results/2013_presidential/2013Manicaland_Presidential_Results_Formatted_13-08-2013.xlsx
+++ b/data/old_results/2013_presidential/2013Manicaland_Presidential_Results_Formatted_13-08-2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\office\Desktop\DI\Zimbabwe_election\data\old_results\2013_presidential\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{06611A4B-B862-4244-B90D-6BCD45371DCE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EAF45CF3-9B8C-4A6E-8630-72BC62158B5A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6545" uniqueCount="1369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6553" uniqueCount="1371">
   <si>
     <t>Hob House 2(Tent)</t>
   </si>
@@ -4134,6 +4134,12 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>60 shapes</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -26876,79 +26882,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ED043C-8E53-4531-A2E0-FF03E297DABC}">
-  <dimension ref="A3:B11"/>
+  <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>242</v>
       </c>
       <c r="B5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>371</v>
       </c>
       <c r="B6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>567</v>
       </c>
       <c r="B7" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>822</v>
       </c>
       <c r="B8" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1064</v>
       </c>
       <c r="B9" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1236</v>
       </c>
       <c r="B10" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1368</v>
       </c>
